--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="1272" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Logboek</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Eindtijd</t>
+  </si>
+  <si>
+    <t>Alleen</t>
+  </si>
+  <si>
+    <t>lamp rood geel groen</t>
+  </si>
+  <si>
+    <t>Problemen</t>
   </si>
 </sst>
 </file>
@@ -75,12 +84,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -385,38 +396,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43384</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Logboek</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>Problemen</t>
+  </si>
+  <si>
+    <t>Temperatuur sensor</t>
+  </si>
+  <si>
+    <t>NTC en PTC werken niet goed. In overleg met chris Dallas ds18b20 gebruikt</t>
   </si>
 </sst>
 </file>
@@ -396,16 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -452,6 +459,26 @@
       </c>
       <c r="E4" s="4">
         <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43384</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2304" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Logboek</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>NTC en PTC werken niet goed. In overleg met chris Dallas ds18b20 gebruikt</t>
+  </si>
+  <si>
+    <t>Weerstation meet iedere vijf seconden de temperatuur.</t>
+  </si>
+  <si>
+    <t>Samen</t>
+  </si>
+  <si>
+    <t>Opzet hardware weerstation</t>
   </si>
 </sst>
 </file>
@@ -90,14 +99,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -402,27 +414,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -444,21 +456,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43383</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43384</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43383</v>
+      </c>
+      <c r="D4" s="3">
         <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -466,18 +496,35 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43384</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="2">
         <v>43384</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D6" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Logboek</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Opzet hardware weerstation</t>
+  </si>
+  <si>
+    <t>overdarcht</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +531,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43396</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3336" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Logboek</t>
   </si>
@@ -58,7 +58,31 @@
     <t>Opzet hardware weerstation</t>
   </si>
   <si>
-    <t>overdarcht</t>
+    <t>Overdarchtrapportage</t>
+  </si>
+  <si>
+    <t>test functie gemaakt</t>
+  </si>
+  <si>
+    <t>Gateway installatie op andere PI</t>
+  </si>
+  <si>
+    <t>Comments bijgevoegd</t>
+  </si>
+  <si>
+    <t>Onderzoek naar webserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alleen </t>
+  </si>
+  <si>
+    <t>webserver tests</t>
+  </si>
+  <si>
+    <t>aanpassingen</t>
+  </si>
+  <si>
+    <t>Ziek niet aanwezig</t>
   </si>
 </sst>
 </file>
@@ -107,12 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,13 +455,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -460,19 +484,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>43383</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.375</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="F3" s="1"/>
@@ -532,11 +556,139 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43385</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43396</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43396</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43398</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43399</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43404</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
-        <v>43396</v>
+      <c r="C14" s="2">
+        <v>43405</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/logboek Rick.xlsx
+++ b/logboek Rick.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="4368" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Logboek</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Ziek niet aanwezig</t>
+  </si>
+  <si>
+    <t>Unittest</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +679,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>43405</v>
@@ -688,7 +691,24 @@
         <v>0.375</v>
       </c>
       <c r="E14" s="3">
-        <v>0.58333333333333337</v>
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>43405</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.47916666666666669</v>
       </c>
     </row>
   </sheetData>
